--- a/RESULTS/Table_3_gam_diagnostics.xlsx
+++ b/RESULTS/Table_3_gam_diagnostics.xlsx
@@ -32,6 +32,60 @@
     <t xml:space="preserve">dev_expl</t>
   </si>
   <si>
+    <t xml:space="preserve">g1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.91%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(depth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(TPI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.93%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(TRI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(aspect)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(roughness)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.75%</t>
+  </si>
+  <si>
     <t xml:space="preserve">g7</t>
   </si>
   <si>
@@ -41,33 +95,6 @@
     <t xml:space="preserve">42.22%</t>
   </si>
   <si>
-    <t xml:space="preserve">g5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(aspect)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(depth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.91%</t>
-  </si>
-  <si>
     <t xml:space="preserve">g8</t>
   </si>
   <si>
@@ -75,33 +102,6 @@
   </si>
   <si>
     <t xml:space="preserve">41.63%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(TPI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(roughness)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(TRI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.75%</t>
   </si>
 </sst>
 </file>
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>806.25</v>
+        <v>888.44</v>
       </c>
       <c r="D2" t="n">
-        <v>226.73</v>
+        <v>270.94</v>
       </c>
       <c r="E2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -481,13 +481,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>808.96</v>
+        <v>886.04</v>
       </c>
       <c r="D3" t="n">
-        <v>229.36</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -501,10 +501,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>886.04</v>
+        <v>890.8</v>
       </c>
       <c r="D4" t="n">
-        <v>266</v>
+        <v>272.29</v>
       </c>
       <c r="E4" t="n">
         <v>0.14</v>
@@ -521,13 +521,13 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>888.44</v>
+        <v>1084.85</v>
       </c>
       <c r="D5" t="n">
-        <v>270.94</v>
+        <v>223.22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -541,13 +541,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>888.5</v>
+        <v>808.96</v>
       </c>
       <c r="D6" t="n">
-        <v>267.74</v>
+        <v>229.36</v>
       </c>
       <c r="E6" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -561,13 +561,13 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>890.8</v>
+        <v>913.96</v>
       </c>
       <c r="D7" t="n">
-        <v>272.29</v>
+        <v>224.34</v>
       </c>
       <c r="E7" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -581,13 +581,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>913.96</v>
+        <v>806.25</v>
       </c>
       <c r="D8" t="n">
-        <v>224.34</v>
+        <v>226.73</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
@@ -601,13 +601,13 @@
         <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>1084.85</v>
+        <v>888.5</v>
       </c>
       <c r="D9" t="n">
-        <v>223.22</v>
+        <v>267.74</v>
       </c>
       <c r="E9" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>

--- a/RESULTS/Table_3_gam_diagnostics.xlsx
+++ b/RESULTS/Table_3_gam_diagnostics.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">model</t>
   </si>
   <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
     <t xml:space="preserve">covariates</t>
   </si>
   <si>
@@ -32,13 +35,22 @@
     <t xml:space="preserve">dev_expl</t>
   </si>
   <si>
+    <t xml:space="preserve">delta_aic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta_gcv</t>
+  </si>
+  <si>
     <t xml:space="preserve">g1</t>
   </si>
   <si>
+    <t xml:space="preserve">tweedie</t>
+  </si>
+  <si>
     <t xml:space="preserve">s(x, y)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.91%</t>
+    <t xml:space="preserve">41%</t>
   </si>
   <si>
     <t xml:space="preserve">g2</t>
@@ -47,7 +59,7 @@
     <t xml:space="preserve">s(x, y) + s(depth)</t>
   </si>
   <si>
-    <t xml:space="preserve">43.16%</t>
+    <t xml:space="preserve">39.6%</t>
   </si>
   <si>
     <t xml:space="preserve">g3</t>
@@ -56,7 +68,7 @@
     <t xml:space="preserve">s(x, y) + s(TPI)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.93%</t>
+    <t xml:space="preserve">41.15%</t>
   </si>
   <si>
     <t xml:space="preserve">g4</t>
@@ -65,7 +77,7 @@
     <t xml:space="preserve">s(x, y) + s(TRI)</t>
   </si>
   <si>
-    <t xml:space="preserve">49.75%</t>
+    <t xml:space="preserve">41.32%</t>
   </si>
   <si>
     <t xml:space="preserve">g5</t>
@@ -74,7 +86,7 @@
     <t xml:space="preserve">s(x, y) + s(aspect)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.31%</t>
+    <t xml:space="preserve">44.99%</t>
   </si>
   <si>
     <t xml:space="preserve">g6</t>
@@ -83,7 +95,7 @@
     <t xml:space="preserve">s(x, y) + s(roughness)</t>
   </si>
   <si>
-    <t xml:space="preserve">45.75%</t>
+    <t xml:space="preserve">41.48%</t>
   </si>
   <si>
     <t xml:space="preserve">g7</t>
@@ -92,7 +104,7 @@
     <t xml:space="preserve">s(x, y) + s(dist2coast)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.22%</t>
+    <t xml:space="preserve">40%</t>
   </si>
   <si>
     <t xml:space="preserve">g8</t>
@@ -101,7 +113,7 @@
     <t xml:space="preserve">s(x, y) + s(dist2shelf)</t>
   </si>
   <si>
-    <t xml:space="preserve">41.63%</t>
+    <t xml:space="preserve">38%</t>
   </si>
 </sst>
 </file>
@@ -452,165 +464,246 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>888.44</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>270.94</v>
+        <v>893.95</v>
       </c>
       <c r="E2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+        <v>268.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.6975233212471</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.95328833324521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>886.04</v>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>266</v>
+        <v>891.11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+        <v>265.06</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.861401057560784</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0317959961167276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>890.8</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>272.29</v>
+        <v>895.68</v>
       </c>
       <c r="E4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+        <v>270.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.42693585104291</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.98382311901514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1084.85</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>223.22</v>
+        <v>895.63</v>
       </c>
       <c r="E5" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+        <v>269.93</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.38058223749874</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.89609158815051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
-        <v>808.96</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>229.36</v>
+        <v>895.97</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+        <v>268.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.71720349560667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.33060242551102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="n">
-        <v>913.96</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>224.34</v>
+        <v>895.57</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
+        <v>269.75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.31697279074149</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.72056153226583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="n">
-        <v>806.25</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>226.73</v>
+        <v>894.38</v>
       </c>
       <c r="E8" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
+        <v>268.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.12334910469917</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.21331948136691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="n">
-        <v>888.5</v>
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>267.74</v>
+        <v>890.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
+        <v>265.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS/Table_3_gam_diagnostics.xlsx
+++ b/RESULTS/Table_3_gam_diagnostics.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">model</t>
   </si>
   <si>
-    <t xml:space="preserve">family</t>
-  </si>
-  <si>
     <t xml:space="preserve">covariates</t>
   </si>
   <si>
@@ -29,37 +26,70 @@
     <t xml:space="preserve">gcv</t>
   </si>
   <si>
+    <t xml:space="preserve">delta_aic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta_gcv</t>
+  </si>
+  <si>
     <t xml:space="preserve">r_squared</t>
   </si>
   <si>
     <t xml:space="preserve">dev_expl</t>
   </si>
   <si>
-    <t xml:space="preserve">delta_aic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delta_gcv</t>
+    <t xml:space="preserve">g8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(dist2shelf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(depth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6%</t>
   </si>
   <si>
     <t xml:space="preserve">g1</t>
   </si>
   <si>
-    <t xml:space="preserve">tweedie</t>
-  </si>
-  <si>
     <t xml:space="preserve">s(x, y)</t>
   </si>
   <si>
     <t xml:space="preserve">41%</t>
   </si>
   <si>
-    <t xml:space="preserve">g2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(depth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6%</t>
+    <t xml:space="preserve">g7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(dist2coast)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(roughness)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s(x, y) + s(TRI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.32%</t>
   </si>
   <si>
     <t xml:space="preserve">g3</t>
@@ -71,15 +101,6 @@
     <t xml:space="preserve">41.15%</t>
   </si>
   <si>
-    <t xml:space="preserve">g4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(TRI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.32%</t>
-  </si>
-  <si>
     <t xml:space="preserve">g5</t>
   </si>
   <si>
@@ -87,33 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">44.99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(roughness)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(dist2coast)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s(x, y) + s(dist2shelf)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38%</t>
   </si>
 </sst>
 </file>
@@ -470,240 +464,213 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="n">
+        <v>890.25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>265.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>893.95</v>
-      </c>
-      <c r="E2" t="n">
-        <v>268.99</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.6975233212471</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.95328833324521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>891.11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>265.06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>891.11</v>
-      </c>
-      <c r="E3" t="n">
-        <v>265.06</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.861401057560784</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0317959961167276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>893.95</v>
+      </c>
+      <c r="D4" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>895.68</v>
-      </c>
-      <c r="E4" t="n">
-        <v>270.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.42693585104291</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.98382311901514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>894.38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>895.63</v>
-      </c>
-      <c r="E5" t="n">
-        <v>269.93</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.38058223749874</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.89609158815051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>895.57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>269.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>895.97</v>
-      </c>
-      <c r="E6" t="n">
-        <v>268.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.71720349560667</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.33060242551102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="n">
+        <v>895.63</v>
+      </c>
+      <c r="D7" t="n">
+        <v>269.93</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="n">
-        <v>895.57</v>
-      </c>
-      <c r="E7" t="n">
-        <v>269.75</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.31697279074149</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.72056153226583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>895.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>270.02</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="n">
-        <v>894.38</v>
-      </c>
-      <c r="E8" t="n">
-        <v>268.25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.12334910469917</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.21331948136691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>895.97</v>
+      </c>
+      <c r="D9" t="n">
+        <v>268.36</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="n">
-        <v>890.25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>265.03</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
